--- a/Habitos_Estudantis.xlsx
+++ b/Habitos_Estudantis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmarc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF7AF42-EFA8-44E8-9F5D-6ED785F01D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0EE8E7-8ED2-4D45-B351-0FE25FE0C984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Pergunta 1</t>
   </si>
@@ -72,8 +69,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,17 +106,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -152,19 +167,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J31" totalsRowShown="0">
-  <autoFilter ref="A1:J31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pergunta 1" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Pergunta 2" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Pergunta 3" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Pergunta 4" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Pergunta 5" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Pergunta 6" dataDxfId="3"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Pergunta 7" dataDxfId="2"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Pergunta 8" dataDxfId="1"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Pergunta 9" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I31" totalsRowShown="0">
+  <autoFilter ref="A1:I31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pergunta 1" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Pergunta 2" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Pergunta 3" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Pergunta 4" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Pergunta 5" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Pergunta 6" dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Pergunta 7" dataDxfId="4"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Pergunta 8" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Pergunta 9" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -467,19 +481,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -506,77 +520,68 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -602,13 +607,10 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>4</v>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -617,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -626,225 +628,204 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>6</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>7</v>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>8</v>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>9</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>10</v>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>11</v>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -853,91 +834,82 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>12</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>13</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>14</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -946,100 +918,91 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>15</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>16</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>17</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>5</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -1050,191 +1013,173 @@
       <c r="I18">
         <v>5</v>
       </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>18</v>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>19</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>4</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>20</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>5</v>
       </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
-        <v>21</v>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>22</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>23</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>5</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -1242,176 +1187,158 @@
       <c r="I24">
         <v>5</v>
       </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>24</v>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>5</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>25</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
-        <v>26</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>3</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
-        <v>27</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
-        <v>28</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
-        <v>29</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -1420,10 +1347,10 @@
         <v>5</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1432,41 +1359,35 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
-        <v>30</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>5</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31">
         <v>4</v>
       </c>
       <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31">
         <v>5</v>
       </c>
     </row>
